--- a/examples/oucru/oucru-dr/resources/outputs/templates/tmp/ccfgs_dr_data_fixed.xlsx
+++ b/examples/oucru/oucru-dr/resources/outputs/templates/tmp/ccfgs_dr_data_fixed.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="554">
   <si>
     <t>from_name</t>
   </si>
@@ -594,88 +594,88 @@
     <t>string</t>
   </si>
   <si>
-    <t>{'V_0': 'DR', 'V_1': ' '}</t>
-  </si>
-  <si>
-    <t>{True: 1, False: 2, None: None}</t>
-  </si>
-  <si>
-    <t>{'V_1': 2, 'V_2': 1, 'V_3': 9}</t>
-  </si>
-  <si>
-    <t>{'V_1': 2006, 'V_2': 2005, 'V_3': 2007, 'V_4': 2008}</t>
-  </si>
-  <si>
-    <t>{'V_0': 1, 'V_1': 2, 'V_2': 5, 'V_3': 3, 'V_4': 4}</t>
-  </si>
-  <si>
-    <t>{'V_1': 2, 'V_2': 1, 'V_3': 5, 'V_4': 3, 'V_5': 4}</t>
-  </si>
-  <si>
-    <t>{'V_0': 2, 'V_1': 1, 'V_2': 9}</t>
-  </si>
-  <si>
-    <t>{'V_1': 2, 'V_2': 1, 'V_3': 3, 'V_4': 4}</t>
-  </si>
-  <si>
-    <t>{'V_1': 2, 'V_2': 1}</t>
-  </si>
-  <si>
-    <t>{'V_0': 2, 'V_1': 1}</t>
-  </si>
-  <si>
-    <t>{'V_1': 1, 'V_2': 2, 'V_3': 3, 'V_4': 4}</t>
-  </si>
-  <si>
-    <t>{'V_0': 1, 'V_1': 2, 'V_2': 9}</t>
-  </si>
-  <si>
-    <t>{'V_0': 1, 'V_2': 7, 'V_3': 4, 'V_4': 2, 'V_5': 3}</t>
-  </si>
-  <si>
-    <t>{'V_0': 1, 'V_2': 2, 'V_3': 3, 'V_4': 4, 'V_5': 5}</t>
-  </si>
-  <si>
-    <t>{'V_0': 1, 'V_1': 2, 'V_3': '1?'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 1, 'V_2': 2, 'V_3': 3}</t>
-  </si>
-  <si>
-    <t>{'V_1': 2, 'V_2': 1, 'V_3': 4, 'V_4': 5, 'V_5': 3}</t>
-  </si>
-  <si>
-    <t>{'V_1': 2, 'V_2': 1, 'V_3': 3}</t>
-  </si>
-  <si>
-    <t>{'V_1': 1}</t>
-  </si>
-  <si>
-    <t>{'V_1': '1?', 'V_2': 1}</t>
-  </si>
-  <si>
-    <t>{'V_1': 2, 'V_2': 3, 'V_3': 1}</t>
-  </si>
-  <si>
-    <t>{'V_0': 2, 'V_1': 9, 'V_2': 1}</t>
-  </si>
-  <si>
-    <t>{'V_1': 'Pulmonary tuberculosis.Treatment 12 months at Nhi Dong I hospital', 'V_2': 'Epilepsy', 'V_3': 'Asthma'}</t>
-  </si>
-  <si>
-    <t>{'V_1': 'Cough medicine,Antipyretic', 'V_2': 'Aminazine', 'V_3': 'SALBUTAMOL 2MG', 'V_4': 'SALBUTAMOL 200G'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 2, 'V_1': '1?', 'V_3': 1}</t>
-  </si>
-  <si>
-    <t>{'V_1': 1, 'V_2': 2, 'V_3': 9}</t>
-  </si>
-  <si>
-    <t>{'V_0': 1, 'V_1': 9, 'V_2': 2, 'V_4': '1?'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 1, 'V_1': 2, 'V_2': 9, 'V_4': '1?', 'V_5': '2?'}</t>
+    <t>{'DR': 'V_0', ' ': 'V_1'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_0', 2: 'V_1'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_1', 1: 'V_2', 9: 'V_3'}</t>
+  </si>
+  <si>
+    <t>{2006: 'V_1', 2005: 'V_2', 2007: 'V_3', 2008: 'V_4'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_0', 2: 'V_1', 5: 'V_2', 3: 'V_3', 4: 'V_4'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_0', 1: 'V_1'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_1', 1: 'V_2', 5: 'V_3', 3: 'V_4', 4: 'V_5'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_0', 1: 'V_1', 9: 'V_2'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_1', 1: 'V_2', 3: 'V_3', 4: 'V_4'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_1', 1: 'V_2'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_1', 2: 'V_2', 3: 'V_3', 4: 'V_4'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_0', 2: 'V_1', 9: 'V_2'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_0', 7: 'V_2', 4: 'V_3', 2: 'V_4', 3: 'V_5'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_0', 2: 'V_2', 3: 'V_3', 4: 'V_4', 5: 'V_5'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_0', 2: 'V_1', '1?': 'V_3'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_0', 2: 'V_2', 3: 'V_3'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_1', 1: 'V_2', 4: 'V_3', 5: 'V_4', 3: 'V_5'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_1', 1: 'V_2', 3: 'V_3'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_1'}</t>
+  </si>
+  <si>
+    <t>{'1?': 'V_1', 1: 'V_2'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_1', 3: 'V_2', 1: 'V_3'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_0', 9: 'V_1', 1: 'V_2'}</t>
+  </si>
+  <si>
+    <t>{'Pulmonary tuberculosis.Treatment 12 months at Nhi Dong I hospital': 'V_1', 'Epilepsy': 'V_2', 'Asthma': 'V_3'}</t>
+  </si>
+  <si>
+    <t>{'Cough medicine,Antipyretic': 'V_1', 'Aminazine': 'V_2', 'SALBUTAMOL 2MG': 'V_3', 'SALBUTAMOL 200G': 'V_4'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_0', '1?': 'V_1', 1: 'V_3'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_1', 2: 'V_2', 9: 'V_3'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_0', 9: 'V_1', 2: 'V_2', '1?': 'V_4'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_0', 2: 'V_1', 9: 'V_2', '1?': 'V_4', '2?': 'V_5'}</t>
   </si>
   <si>
     <t>Search 2</t>
@@ -934,43 +934,40 @@
     <t>who-dhf</t>
   </si>
   <si>
-    <t>{'V_1': 9}</t>
-  </si>
-  <si>
-    <t>{'V_0': 1, 'V_1': 3, 'V_2': 2}</t>
-  </si>
-  <si>
-    <t>{'V_0': 1, 'V_1': 0, 'V_3': 2, 'V_4': 3}</t>
-  </si>
-  <si>
-    <t>{'V_0': 0, 'V_2': 1, 'V_3': 2, 'V_4': 3}</t>
-  </si>
-  <si>
-    <t>{'V_0': 0, 'V_2': 2, 'V_3': 1, 'V_4': 3}</t>
-  </si>
-  <si>
-    <t>{'V_0': 2, 'V_2': 9, 'V_3': 1, 'V_4': '1?'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 2, 'V_2': 1}</t>
-  </si>
-  <si>
-    <t>{'V_0': 1, 'V_1': 2}</t>
+    <t>{9: 'V_1'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_0', 3: 'V_1', 2: 'V_2'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_0', 0: 'V_1', 2: 'V_3', 3: 'V_4'}</t>
+  </si>
+  <si>
+    <t>{0: 'V_0', 1: 'V_2', 2: 'V_3', 3: 'V_4'}</t>
+  </si>
+  <si>
+    <t>{0: 'V_0', 2: 'V_2', 1: 'V_3', 3: 'V_4'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_0', 9: 'V_2', 1: 'V_3', '1?': 'V_4'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_0', 1: 'V_2'}</t>
   </si>
   <si>
     <t>{}</t>
   </si>
   <si>
-    <t>{'V_1': 3}</t>
-  </si>
-  <si>
-    <t>{'V_1': ' ', 'V_2': 37}</t>
-  </si>
-  <si>
-    <t>{'V_1': 1, 'V_2': '?'}</t>
-  </si>
-  <si>
-    <t>{'V_1': 4}</t>
+    <t>{3: 'V_1'}</t>
+  </si>
+  <si>
+    <t>{' ': 'V_1', 37: 'V_2'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_1', '?': 'V_2'}</t>
+  </si>
+  <si>
+    <t>{4: 'V_1'}</t>
   </si>
   <si>
     <t>St.Code</t>
@@ -1069,19 +1066,19 @@
     <t>unnamed: 16</t>
   </si>
   <si>
-    <t>{'V_0': 'DR'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'Neg', 'V_2': 'Neg ', 'V_3': 'neg', 'V_4': 'pos', 'V_5': 'Equivocal'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'Neg'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'Neg', 'V_2': 'neg'}</t>
-  </si>
-  <si>
-    <t>{'V_1': 'checked(not change)', 'V_2': 'checked(change Urine value)', 'V_3': 'checked(Urine value problem)'}</t>
+    <t>{'DR': 'V_0'}</t>
+  </si>
+  <si>
+    <t>{'Neg': 'V_0', 'Neg ': 'V_2', 'neg': 'V_3', 'pos': 'V_4', 'Equivocal': 'V_5'}</t>
+  </si>
+  <si>
+    <t>{'Neg': 'V_0'}</t>
+  </si>
+  <si>
+    <t>{'Neg': 'V_0', 'neg': 'V_2'}</t>
+  </si>
+  <si>
+    <t>{'checked(not change)': 'V_1', 'checked(change Urine value)': 'V_2', 'checked(Urine value problem)': 'V_3'}</t>
   </si>
   <si>
     <t>Date  serology ELISA</t>
@@ -1183,10 +1180,10 @@
     <t>albumin/creatinine ratio(mg/mmolcreatinine)</t>
   </si>
   <si>
-    <t>{'V_0': datetime.datetime(2007, 4, 1, 0, 0), 'V_2': datetime.datetime(2007, 9, 1, 0, 0), 'V_3': '24/8/07'}</t>
-  </si>
-  <si>
-    <t>{'V_0': datetime.datetime(2006, 11, 7, 0, 0), 'V_2': '11/7/2006 (5th)', 'V_3': '11/7/2006(5th)', 'V_4': datetime.datetime(2007, 1, 16, 0, 0), 'V_5': '31/8/07'}</t>
+    <t>{datetime.datetime(2007, 4, 1, 0, 0): 'V_0', datetime.datetime(2007, 9, 1, 0, 0): 'V_2', '24/8/07': 'V_3'}</t>
+  </si>
+  <si>
+    <t>{datetime.datetime(2006, 11, 7, 0, 0): 'V_0', '11/7/2006 (5th)': 'V_2', '11/7/2006(5th)': 'V_3', datetime.datetime(2007, 1, 16, 0, 0): 'V_4', '31/8/07': 'V_5'}</t>
   </si>
   <si>
     <t>Urine Albumin/ Creatinine ratio (mg/mmolcreatinine)</t>
@@ -1195,7 +1192,7 @@
     <t>urine albumin/ creatinine ratio (mg/mmolcreatinine)</t>
   </si>
   <si>
-    <t>{'V_0': 'Neg', 'V_2': 'Neg ', 'V_3': 'Equivocal', 'V_4': 'Pos'}</t>
+    <t>{'Neg': 'V_0', 'Neg ': 'V_2', 'Equivocal': 'V_3', 'Pos': 'V_4'}</t>
   </si>
   <si>
     <t>studycode</t>
@@ -1246,16 +1243,16 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>{'V_0': 'N', 'V_1': 'BV'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 1, 'V_1': 0, 'V_3': 2}</t>
-  </si>
-  <si>
-    <t>{'V_0': 0, 'V_2': 1}</t>
-  </si>
-  <si>
-    <t>{'V_1': 500, 'V_2': 550, 'V_3': 1000, 'V_4': 1100, 'V_5': 1150}</t>
+    <t>{'N': 'V_0', 'BV': 'V_1'}</t>
+  </si>
+  <si>
+    <t>{1: 'V_0', 0: 'V_1', 2: 'V_3'}</t>
+  </si>
+  <si>
+    <t>{0: 'V_0', 1: 'V_2'}</t>
+  </si>
+  <si>
+    <t>{500: 'V_1', 550: 'V_2', 1000: 'V_3', 1100: 'V_4', 1150: 'V_5'}</t>
   </si>
   <si>
     <t>DENV1_Date PCR</t>
@@ -1294,6 +1291,21 @@
     <t>DENV4_Copies/ml</t>
   </si>
   <si>
+    <t>SEROTYPE-1</t>
+  </si>
+  <si>
+    <t>SEROTYPE-2</t>
+  </si>
+  <si>
+    <t>SEROTYPE-3</t>
+  </si>
+  <si>
+    <t>SEROTYPE-4</t>
+  </si>
+  <si>
+    <t>SEROTYPE</t>
+  </si>
+  <si>
     <t>denv1_date pcr</t>
   </si>
   <si>
@@ -1330,10 +1342,37 @@
     <t>denv4_copies/ml</t>
   </si>
   <si>
-    <t>{'V_1': 17600.0, 'V_2': 52.66, 'V_3': 0.3966}</t>
-  </si>
-  <si>
-    <t>{'V_1': 15714285.71428571, 'V_2': 47017.85714285714, 'V_3': 354.1071428571428}</t>
+    <t>serotype-1</t>
+  </si>
+  <si>
+    <t>serotype-2</t>
+  </si>
+  <si>
+    <t>serotype-3</t>
+  </si>
+  <si>
+    <t>serotype-4</t>
+  </si>
+  <si>
+    <t>serotype</t>
+  </si>
+  <si>
+    <t>{17600.0: 'V_1', 52.66: 'V_2', 0.3966: 'V_3'}</t>
+  </si>
+  <si>
+    <t>{15714285.71428571: 'V_1', 47017.85714285714: 'V_2', 354.1071428571428: 'V_3'}</t>
+  </si>
+  <si>
+    <t>{'DENV-1': 'V_1'}</t>
+  </si>
+  <si>
+    <t>{'DENV-2': 'V_0'}</t>
+  </si>
+  <si>
+    <t>{'DENV-3': 'V_1'}</t>
+  </si>
+  <si>
+    <t>{'DENV-4': 'V_1'}</t>
   </si>
   <si>
     <t>Number</t>
@@ -1591,64 +1630,64 @@
     <t>check</t>
   </si>
   <si>
-    <t>{'V_0': 1}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'DR', 'V_1': 'DRDF', 'V_2': 'DRDF(1407)'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 2}</t>
-  </si>
-  <si>
-    <t>{'V_0': 3}</t>
-  </si>
-  <si>
-    <t>{'V_0': 4}</t>
-  </si>
-  <si>
-    <t>{'V_0': 5}</t>
-  </si>
-  <si>
-    <t>{'V_0': 6}</t>
-  </si>
-  <si>
-    <t>{'V_0': 7}</t>
-  </si>
-  <si>
-    <t>{'V_0': 8}</t>
-  </si>
-  <si>
-    <t>{'V_0': 9}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'Neg', 'V_2': 'Equivocal', 'V_3': 'Pos', 'V_4': 'pos', 'V_5': 'neg'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'Neg', 'V_2': 'Equivocal', 'V_3': 'Pos'}</t>
-  </si>
-  <si>
-    <t>{'V_1': 'Missing', 'V_2': 17600, 'V_3': 52.66, 'V_4': 'Below limit'}</t>
-  </si>
-  <si>
-    <t>{'V_1': 'Missing', 'V_2': 15714285.71428571, 'V_3': 47017.85714285714}</t>
-  </si>
-  <si>
-    <t>{'V_1': 'Missing', 'V_2': 7.196294645143968, 'V_3': 4.672262832099868}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'Pos', 'V_2': 'neg', 'V_3': 'pos', 'V_4': 'Equivocal'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'Neg', 'V_2': 'Pos', 'V_3': 'neg', 'V_4': 'pos', 'V_5': 'Equivocal'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 'Pos', 'V_2': 'Neg'}</t>
-  </si>
-  <si>
-    <t>{'V_0': 2, 'V_1': 0, 'V_2': 1}</t>
-  </si>
-  <si>
-    <t>{'V_1': 0}</t>
+    <t>{1: 'V_0'}</t>
+  </si>
+  <si>
+    <t>{'DR': 'V_0', 'DRDF': 'V_1', 'DRDF(1407)': 'V_2'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_0'}</t>
+  </si>
+  <si>
+    <t>{3: 'V_0'}</t>
+  </si>
+  <si>
+    <t>{4: 'V_0'}</t>
+  </si>
+  <si>
+    <t>{5: 'V_0'}</t>
+  </si>
+  <si>
+    <t>{6: 'V_0'}</t>
+  </si>
+  <si>
+    <t>{7: 'V_0'}</t>
+  </si>
+  <si>
+    <t>{8: 'V_0'}</t>
+  </si>
+  <si>
+    <t>{9: 'V_0'}</t>
+  </si>
+  <si>
+    <t>{'Neg': 'V_0', 'Equivocal': 'V_2', 'Pos': 'V_3', 'pos': 'V_4', 'neg': 'V_5'}</t>
+  </si>
+  <si>
+    <t>{'Neg': 'V_0', 'Equivocal': 'V_2', 'Pos': 'V_3'}</t>
+  </si>
+  <si>
+    <t>{'Missing': 'V_1', 17600: 'V_2', 52.66: 'V_3', 'Below limit': 'V_4'}</t>
+  </si>
+  <si>
+    <t>{'Missing': 'V_1', 15714285.71428571: 'V_2', 47017.85714285714: 'V_3'}</t>
+  </si>
+  <si>
+    <t>{'Missing': 'V_1', 7.196294645143968: 'V_2', 4.672262832099868: 'V_3'}</t>
+  </si>
+  <si>
+    <t>{'Pos': 'V_0', 'neg': 'V_2', 'pos': 'V_3', 'Equivocal': 'V_4'}</t>
+  </si>
+  <si>
+    <t>{'Neg': 'V_0', 'Pos': 'V_2', 'neg': 'V_3', 'pos': 'V_4', 'Equivocal': 'V_5'}</t>
+  </si>
+  <si>
+    <t>{'Pos': 'V_0', 'Neg': 'V_2'}</t>
+  </si>
+  <si>
+    <t>{2: 'V_0', 0: 'V_1', 1: 'V_2'}</t>
+  </si>
+  <si>
+    <t>{0: 'V_1'}</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2322,7 @@
         <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2300,7 +2339,7 @@
         <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2317,7 +2356,7 @@
         <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2334,7 +2373,7 @@
         <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2351,7 +2390,7 @@
         <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2368,7 +2407,7 @@
         <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2416,7 +2455,7 @@
         <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2552,7 +2591,7 @@
         <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2586,7 +2625,7 @@
         <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2654,7 +2693,7 @@
         <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2688,7 +2727,7 @@
         <v>184</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2705,7 +2744,7 @@
         <v>184</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2770,7 +2809,7 @@
         <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2832,7 +2871,7 @@
         <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -2863,7 +2902,7 @@
         <v>184</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -2880,7 +2919,7 @@
         <v>184</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -2897,7 +2936,7 @@
         <v>184</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -2914,7 +2953,7 @@
         <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3018,7 +3057,7 @@
         <v>184</v>
       </c>
       <c r="D62" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -3035,7 +3074,7 @@
         <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3052,7 +3091,7 @@
         <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3066,7 +3105,10 @@
         <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="D65" t="s">
+        <v>195</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3311,7 +3353,7 @@
         <v>184</v>
       </c>
       <c r="D81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3857,7 +3899,7 @@
         <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -3955,7 +3997,10 @@
         <v>277</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>309</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -3969,7 +4014,10 @@
         <v>278</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="D35" t="s">
+        <v>309</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -3986,7 +4034,7 @@
         <v>184</v>
       </c>
       <c r="D36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -4003,7 +4051,7 @@
         <v>184</v>
       </c>
       <c r="D37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -4020,7 +4068,7 @@
         <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -4037,7 +4085,7 @@
         <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -4054,7 +4102,7 @@
         <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -4071,7 +4119,7 @@
         <v>184</v>
       </c>
       <c r="D41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -4088,7 +4136,7 @@
         <v>184</v>
       </c>
       <c r="D42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -4105,7 +4153,7 @@
         <v>184</v>
       </c>
       <c r="D43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -4122,7 +4170,7 @@
         <v>184</v>
       </c>
       <c r="D44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -4139,7 +4187,7 @@
         <v>184</v>
       </c>
       <c r="D45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -4156,7 +4204,7 @@
         <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -4173,7 +4221,7 @@
         <v>184</v>
       </c>
       <c r="D47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -4204,7 +4252,7 @@
         <v>184</v>
       </c>
       <c r="D49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -4221,7 +4269,7 @@
         <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -4272,7 +4320,7 @@
         <v>184</v>
       </c>
       <c r="D53" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -4323,7 +4371,7 @@
         <v>184</v>
       </c>
       <c r="D56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -4340,7 +4388,7 @@
         <v>184</v>
       </c>
       <c r="D57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -4357,7 +4405,7 @@
         <v>184</v>
       </c>
       <c r="D58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -4410,16 +4458,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4427,10 +4475,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
         <v>185</v>
@@ -4441,10 +4489,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
         <v>187</v>
@@ -4461,7 +4509,10 @@
         <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4469,16 +4520,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C6" t="s">
         <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -4486,16 +4537,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" t="s">
         <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4503,16 +4554,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C8" t="s">
         <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4520,10 +4571,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C9" t="s">
         <v>186</v>
@@ -4534,16 +4585,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
         <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4551,10 +4602,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C11" t="s">
         <v>186</v>
@@ -4565,16 +4616,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C12" t="s">
         <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4582,10 +4633,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C13" t="s">
         <v>188</v>
@@ -4596,10 +4647,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C14" t="s">
         <v>186</v>
@@ -4610,10 +4661,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C15" t="s">
         <v>185</v>
@@ -4624,10 +4675,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C16" t="s">
         <v>186</v>
@@ -4638,10 +4689,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
         <v>186</v>
@@ -4652,16 +4703,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C18" t="s">
         <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4714,16 +4765,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4731,10 +4782,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
         <v>185</v>
@@ -4745,10 +4796,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
         <v>187</v>
@@ -4765,7 +4816,10 @@
         <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4773,10 +4827,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C6" t="s">
         <v>188</v>
@@ -4787,16 +4841,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C7" t="s">
         <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4804,16 +4858,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C8" t="s">
         <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4821,16 +4875,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C9" t="s">
         <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4838,16 +4892,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C10" t="s">
         <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4855,16 +4909,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
         <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4872,10 +4926,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C12" t="s">
         <v>186</v>
@@ -4886,16 +4940,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
         <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4903,10 +4957,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C14" t="s">
         <v>186</v>
@@ -4917,16 +4971,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C15" t="s">
         <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4934,10 +4988,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C16" t="s">
         <v>185</v>
@@ -4948,10 +5002,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
         <v>187</v>
@@ -4962,13 +5016,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="D18" t="s">
+        <v>309</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4976,10 +5033,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C19" t="s">
         <v>186</v>
@@ -4990,10 +5047,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C20" t="s">
         <v>186</v>
@@ -5004,10 +5061,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C21" t="s">
         <v>187</v>
@@ -5018,10 +5075,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C22" t="s">
         <v>185</v>
@@ -5032,10 +5089,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C23" t="s">
         <v>186</v>
@@ -5046,10 +5103,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C24" t="s">
         <v>186</v>
@@ -5105,16 +5162,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5122,10 +5179,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
         <v>185</v>
@@ -5136,10 +5193,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
         <v>187</v>
@@ -5164,16 +5221,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C6" t="s">
         <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5181,16 +5238,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" t="s">
         <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5198,16 +5255,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C8" t="s">
         <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5215,16 +5272,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C9" t="s">
         <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -5232,16 +5289,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
         <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5249,16 +5306,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C11" t="s">
         <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5266,16 +5323,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C12" t="s">
         <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5283,10 +5340,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C13" t="s">
         <v>186</v>
@@ -5297,10 +5354,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C14" t="s">
         <v>186</v>
@@ -5311,10 +5368,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C15" t="s">
         <v>185</v>
@@ -5325,10 +5382,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C16" t="s">
         <v>186</v>
@@ -5339,10 +5396,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" t="s">
         <v>387</v>
-      </c>
-      <c r="B17" t="s">
-        <v>388</v>
       </c>
       <c r="C17" t="s">
         <v>186</v>
@@ -5398,16 +5455,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
         <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5415,10 +5472,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C3" t="s">
         <v>185</v>
@@ -5429,10 +5486,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
         <v>187</v>
@@ -5443,10 +5500,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
         <v>187</v>
@@ -5457,10 +5514,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
         <v>189</v>
@@ -5471,7 +5528,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
         <v>264</v>
@@ -5485,16 +5542,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C8" t="s">
         <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5511,7 +5568,7 @@
         <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -5615,7 +5672,7 @@
         <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5666,7 +5723,7 @@
         <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -5717,7 +5774,7 @@
         <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -5734,7 +5791,7 @@
         <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -5770,13 +5827,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -5784,13 +5841,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B27" t="s">
+        <v>403</v>
+      </c>
+      <c r="C27" t="s">
         <v>404</v>
-      </c>
-      <c r="C27" t="s">
-        <v>405</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -5803,7 +5860,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5843,16 +5900,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5860,10 +5917,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
         <v>185</v>
@@ -5874,10 +5931,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
         <v>187</v>
@@ -5897,7 +5954,7 @@
         <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5905,10 +5962,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C6" t="s">
         <v>187</v>
@@ -5919,10 +5976,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
         <v>186</v>
@@ -5933,10 +5990,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C8" t="s">
         <v>186</v>
@@ -5947,10 +6004,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C9" t="s">
         <v>187</v>
@@ -5961,10 +6018,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C10" t="s">
         <v>186</v>
@@ -5975,10 +6032,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C11" t="s">
         <v>186</v>
@@ -5989,10 +6046,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C12" t="s">
         <v>187</v>
@@ -6003,10 +6060,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C13" t="s">
         <v>186</v>
@@ -6017,10 +6074,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C14" t="s">
         <v>186</v>
@@ -6031,10 +6088,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B15" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C15" t="s">
         <v>187</v>
@@ -6045,16 +6102,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C16" t="s">
         <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -6062,18 +6119,100 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" t="s">
+        <v>437</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>421</v>
       </c>
-      <c r="B17" t="s">
-        <v>433</v>
-      </c>
-      <c r="C17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" t="s">
-        <v>435</v>
-      </c>
-      <c r="F17" t="b">
+      <c r="B18" t="s">
+        <v>438</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" t="s">
+        <v>445</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" t="s">
+        <v>447</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21" t="s">
+        <v>441</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" t="s">
+        <v>448</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6124,10 +6263,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="C2" t="s">
         <v>185</v>
@@ -6138,16 +6277,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C3" t="s">
         <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6155,16 +6294,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="C4" t="s">
         <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -6172,10 +6311,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
         <v>185</v>
@@ -6186,10 +6325,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
         <v>188</v>
@@ -6214,10 +6353,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="C8" t="s">
         <v>185</v>
@@ -6228,10 +6367,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C9" t="s">
         <v>185</v>
@@ -6242,16 +6381,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="C10" t="s">
         <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -6259,16 +6398,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="C11" t="s">
         <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -6276,16 +6415,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="B12" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="C12" t="s">
         <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -6293,16 +6432,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="B13" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="C13" t="s">
         <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -6310,16 +6449,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="B14" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="C14" t="s">
         <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -6327,16 +6466,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="B15" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="C15" t="s">
         <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -6344,16 +6483,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="B16" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="C16" t="s">
         <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -6361,16 +6500,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="B17" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="C17" t="s">
         <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -6378,16 +6517,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="B18" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="C18" t="s">
         <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -6395,10 +6534,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
         <v>189</v>
@@ -6409,16 +6548,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B20" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="C20" t="s">
         <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -6426,16 +6565,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B21" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="C21" t="s">
         <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -6443,10 +6582,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="B22" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="C22" t="s">
         <v>184</v>
@@ -6460,10 +6599,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="B23" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="C23" t="s">
         <v>188</v>
@@ -6474,10 +6613,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="B24" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="C24" t="s">
         <v>189</v>
@@ -6488,10 +6627,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="B25" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="C25" t="s">
         <v>188</v>
@@ -6502,10 +6641,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B26" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="C26" t="s">
         <v>188</v>
@@ -6516,10 +6655,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B27" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="C27" t="s">
         <v>189</v>
@@ -6530,10 +6669,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="B28" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="C28" t="s">
         <v>188</v>
@@ -6544,10 +6683,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="B29" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="C29" t="s">
         <v>188</v>
@@ -6558,10 +6697,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="B30" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="C30" t="s">
         <v>188</v>
@@ -6572,10 +6711,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="B31" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="C31" t="s">
         <v>188</v>
@@ -6586,10 +6725,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="B32" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="C32" t="s">
         <v>188</v>
@@ -6600,10 +6739,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="B33" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C33" t="s">
         <v>188</v>
@@ -6614,10 +6753,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B34" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="C34" t="s">
         <v>188</v>
@@ -6628,10 +6767,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="B35" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C35" t="s">
         <v>188</v>
@@ -6642,10 +6781,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="B36" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="C36" t="s">
         <v>188</v>
@@ -6656,10 +6795,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="B37" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="C37" t="s">
         <v>188</v>
@@ -6670,10 +6809,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B38" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="C38" t="s">
         <v>188</v>
@@ -6684,10 +6823,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="B39" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="C39" t="s">
         <v>188</v>
@@ -6698,10 +6837,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B40" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="C40" t="s">
         <v>188</v>
@@ -6712,10 +6851,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="B41" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="C41" t="s">
         <v>188</v>
@@ -6726,10 +6865,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B42" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="C42" t="s">
         <v>188</v>
@@ -6740,10 +6879,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="B43" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="C43" t="s">
         <v>188</v>
@@ -6754,16 +6893,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B44" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="C44" t="s">
         <v>184</v>
       </c>
       <c r="D44" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -6771,16 +6910,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="B45" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="C45" t="s">
         <v>184</v>
       </c>
       <c r="D45" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -6788,16 +6927,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="B46" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="C46" t="s">
         <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -6805,10 +6944,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C47" t="s">
         <v>188</v>
@@ -6819,10 +6958,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="B48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C48" t="s">
         <v>188</v>
@@ -6833,10 +6972,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C49" t="s">
         <v>189</v>
@@ -6847,10 +6986,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C50" t="s">
         <v>188</v>
@@ -6861,10 +7000,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>386</v>
+      </c>
+      <c r="B51" t="s">
         <v>387</v>
-      </c>
-      <c r="B51" t="s">
-        <v>388</v>
       </c>
       <c r="C51" t="s">
         <v>188</v>
@@ -6875,10 +7014,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="B52" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="C52" t="s">
         <v>189</v>
@@ -6934,10 +7073,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="C2" t="s">
         <v>185</v>
@@ -6948,16 +7087,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C3" t="s">
         <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6965,16 +7104,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="C4" t="s">
         <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -6982,10 +7121,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
         <v>185</v>
@@ -6996,10 +7135,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
         <v>187</v>
@@ -7024,16 +7163,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C8" t="s">
         <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7041,16 +7180,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="C9" t="s">
         <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7058,16 +7197,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="C10" t="s">
         <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7075,16 +7214,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="C11" t="s">
         <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7092,16 +7231,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="B12" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="C12" t="s">
         <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -7109,16 +7248,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="C13" t="s">
         <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7126,16 +7265,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="B14" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C14" t="s">
         <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -7143,16 +7282,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="C15" t="s">
         <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -7160,16 +7299,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C16" t="s">
         <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7177,16 +7316,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="C17" t="s">
         <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -7194,16 +7333,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="C18" t="s">
         <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -7211,16 +7350,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B19" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="C19" t="s">
         <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -7228,16 +7367,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="B20" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="C20" t="s">
         <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -7245,16 +7384,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B21" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="C21" t="s">
         <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7262,16 +7401,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="B22" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="C22" t="s">
         <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -7279,16 +7418,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B23" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="C23" t="s">
         <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -7296,16 +7435,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="B24" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="C24" t="s">
         <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -7313,16 +7452,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B25" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="C25" t="s">
         <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -7330,16 +7469,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="B26" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="C26" t="s">
         <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -7347,16 +7486,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="B27" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="C27" t="s">
         <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -7364,10 +7503,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C28" t="s">
         <v>186</v>
@@ -7378,10 +7517,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="B29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C29" t="s">
         <v>186</v>
@@ -7392,10 +7531,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C30" t="s">
         <v>185</v>
@@ -7406,10 +7545,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C31" t="s">
         <v>186</v>
@@ -7420,10 +7559,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B32" t="s">
         <v>387</v>
-      </c>
-      <c r="B32" t="s">
-        <v>388</v>
       </c>
       <c r="C32" t="s">
         <v>186</v>
@@ -7434,16 +7573,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="B33" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="C33" t="s">
         <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
